--- a/backend/templates/emboss-rubber-roller-history-card.xlsx
+++ b/backend/templates/emboss-rubber-roller-history-card.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D9916F-7020-4EDA-A636-1846808E734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06586052-6655-4552-B81D-8912E63822B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -600,6 +600,51 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -623,45 +668,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -997,10 +1003,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M83"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,78 +1022,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="39"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="40"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="49"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="43"/>
     </row>
     <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="50"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
       <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
       <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="47"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1099,48 +1105,48 @@
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="L8" s="41" t="s">
+      <c r="L8" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="37" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="46"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1150,11 +1156,11 @@
       <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="44"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="38"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -2014,12 +2020,12 @@
     <row r="67" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="21"/>
       <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
+      <c r="C67" s="23"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="7"/>
@@ -2041,20 +2047,20 @@
       <c r="L68" s="7"/>
       <c r="M68" s="20"/>
     </row>
-    <row r="69" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="26"/>
+    <row r="69" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="20"/>
     </row>
     <row r="70" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="21"/>
@@ -2086,159 +2092,603 @@
       <c r="L71" s="7"/>
       <c r="M71" s="20"/>
     </row>
-    <row r="72" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="26"/>
-    </row>
-    <row r="73" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="16"/>
-    </row>
-    <row r="74" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="16"/>
-    </row>
-    <row r="75" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="16"/>
-    </row>
-    <row r="76" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="5"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="16"/>
-    </row>
-    <row r="77" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="16"/>
-    </row>
-    <row r="78" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="16"/>
-    </row>
-    <row r="79" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="5"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="16"/>
-    </row>
-    <row r="80" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="28"/>
-    </row>
-    <row r="82" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31" t="s">
+    <row r="72" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="20"/>
+    </row>
+    <row r="73" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="20"/>
+    </row>
+    <row r="74" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="20"/>
+    </row>
+    <row r="75" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="20"/>
+    </row>
+    <row r="76" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="21"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="20"/>
+    </row>
+    <row r="77" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="20"/>
+    </row>
+    <row r="78" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="20"/>
+    </row>
+    <row r="79" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="20"/>
+    </row>
+    <row r="80" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="25"/>
+      <c r="M80" s="26"/>
+    </row>
+    <row r="81" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="21"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="20"/>
+    </row>
+    <row r="82" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="20"/>
+    </row>
+    <row r="83" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="21"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="20"/>
+    </row>
+    <row r="84" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="20"/>
+    </row>
+    <row r="85" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="21"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="20"/>
+    </row>
+    <row r="86" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="21"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="20"/>
+    </row>
+    <row r="87" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="21"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="20"/>
+    </row>
+    <row r="88" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="21"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="20"/>
+    </row>
+    <row r="89" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="21"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="20"/>
+    </row>
+    <row r="90" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="21"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="20"/>
+    </row>
+    <row r="91" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="21"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="20"/>
+    </row>
+    <row r="92" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="21"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="20"/>
+    </row>
+    <row r="93" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="21"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="7"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="20"/>
+    </row>
+    <row r="94" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="21"/>
+      <c r="B94" s="7"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="7"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="20"/>
+    </row>
+    <row r="95" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="21"/>
+      <c r="B95" s="7"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="7"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="20"/>
+    </row>
+    <row r="96" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="21"/>
+      <c r="B96" s="7"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="7"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="20"/>
+    </row>
+    <row r="97" spans="1:13" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="21"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="20"/>
+    </row>
+    <row r="98" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="27"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
+      <c r="M98" s="26"/>
+    </row>
+    <row r="99" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="5"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="16"/>
+    </row>
+    <row r="100" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="5"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="31"/>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="31"/>
+      <c r="L100" s="31"/>
+      <c r="M100" s="32"/>
+    </row>
+    <row r="101" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="5"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
+      <c r="K101" s="31"/>
+      <c r="L101" s="31"/>
+      <c r="M101" s="32"/>
+    </row>
+    <row r="102" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="31"/>
+      <c r="D102" s="31"/>
+      <c r="E102" s="31"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="31"/>
+      <c r="K102" s="31"/>
+      <c r="L102" s="31"/>
+      <c r="M102" s="32"/>
+    </row>
+    <row r="103" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="16"/>
+    </row>
+    <row r="104" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="5"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="6"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="16"/>
+    </row>
+    <row r="105" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+      <c r="L105" s="6"/>
+      <c r="M105" s="16"/>
+    </row>
+    <row r="106" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="5"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+      <c r="L106" s="6"/>
+      <c r="M106" s="16"/>
+    </row>
+    <row r="107" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="5"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+      <c r="L107" s="6"/>
+      <c r="M107" s="16"/>
+    </row>
+    <row r="108" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="5"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+      <c r="L108" s="6"/>
+      <c r="M108" s="16"/>
+    </row>
+    <row r="109" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="11"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="28"/>
+    </row>
+    <row r="111" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="31" t="s">
+      <c r="B111" s="46"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="46"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="L8:L9"/>
@@ -2253,19 +2703,10 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D73:D80 D70:D71 D66:D67" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D99:D109 D81:D97 D77:D78" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2291,58 +2732,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="39"/>
+      <c r="E1" s="33"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="40"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="61" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="56"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="60"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="62"/>
     </row>
     <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -2478,17 +2919,17 @@
       <c r="E25" s="28"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="46"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="11">
